--- a/DataDriven_Framework_COTC/LoginSuite.xlsx
+++ b/DataDriven_Framework_COTC/LoginSuite.xlsx
@@ -99,34 +99,34 @@
     <t>subject</t>
   </si>
   <si>
+    <t>vidhya@.com</t>
+  </si>
+  <si>
+    <t>Automation Testing message1</t>
+  </si>
+  <si>
+    <t>attachment</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>I am posting a message before login using Automation script and without attachment</t>
+  </si>
+  <si>
+    <t>I am posting a message before login using Automation script and with attachment</t>
+  </si>
+  <si>
+    <t>FAILURE</t>
+  </si>
+  <si>
+    <t>vidhyaautomat1</t>
+  </si>
+  <si>
+    <t>vidhyaautomat8</t>
+  </si>
+  <si>
     <t>Mozilla</t>
-  </si>
-  <si>
-    <t>vidhya@.com</t>
-  </si>
-  <si>
-    <t>Automation Testing message1</t>
-  </si>
-  <si>
-    <t>attachment</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>I am posting a message before login using Automation script and without attachment</t>
-  </si>
-  <si>
-    <t>I am posting a message before login using Automation script and with attachment</t>
-  </si>
-  <si>
-    <t>FAILURE</t>
-  </si>
-  <si>
-    <t>vidhyaautomat1</t>
-  </si>
-  <si>
-    <t>vidhyaautomat2</t>
   </si>
 </sst>
 </file>
@@ -149,7 +149,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,8 +168,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -192,17 +198,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -211,13 +206,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -537,7 +531,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -545,7 +539,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -553,7 +547,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -561,7 +555,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -569,7 +563,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -579,59 +573,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="11.81640625" customWidth="1"/>
     <col min="4" max="4" width="13.90625" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="5" max="5" width="18.90625" customWidth="1"/>
     <col min="6" max="6" width="20.6328125" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
@@ -641,79 +637,80 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
@@ -722,173 +719,175 @@
       <c r="F11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:8">
+      <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>28</v>
+      <c r="E15" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>28</v>
+      <c r="E16" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="F16" t="s">
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:10">
+    <row r="18" spans="1:11">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:11">
+      <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="4" t="s">
+      <c r="I20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F21" t="s">
         <v>23</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F22" t="s">
@@ -898,7 +897,7 @@
         <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I22" t="s">
         <v>2</v>

--- a/DataDriven_Framework_COTC/LoginSuite.xlsx
+++ b/DataDriven_Framework_COTC/LoginSuite.xlsx
@@ -123,10 +123,10 @@
     <t>vidhyaautomat1</t>
   </si>
   <si>
-    <t>vidhyaautomat8</t>
-  </si>
-  <si>
     <t>Mozilla</t>
+  </si>
+  <si>
+    <t>vidhyaautomat9</t>
   </si>
 </sst>
 </file>
@@ -510,7 +510,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -531,7 +531,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -576,7 +576,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -665,7 +665,7 @@
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -708,7 +708,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -752,10 +752,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -772,10 +772,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -795,7 +795,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -804,7 +804,7 @@
         <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
@@ -856,7 +856,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
@@ -879,10 +879,10 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
